--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>245739.1036771426</v>
+        <v>244168.7008742108</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26314,10 @@
         <v>86005.92442515714</v>
       </c>
       <c r="C2" t="n">
-        <v>86005.92442515714</v>
+        <v>86005.92442515712</v>
       </c>
       <c r="D2" t="n">
-        <v>86005.92442515711</v>
+        <v>86005.92442515712</v>
       </c>
       <c r="E2" t="n">
         <v>91456.43851989089</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="D4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="F4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="G4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="H4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="I4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="J4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="K4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="L4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="M4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="N4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="O4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="P4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4258.597227747545</v>
+        <v>3999.99193600627</v>
       </c>
       <c r="C6" t="n">
-        <v>4258.597227747545</v>
+        <v>3999.991936006256</v>
       </c>
       <c r="D6" t="n">
-        <v>4258.597227747516</v>
+        <v>3999.991936006256</v>
       </c>
       <c r="E6" t="n">
-        <v>-73771.17076427207</v>
+        <v>-73924.42158673731</v>
       </c>
       <c r="F6" t="n">
-        <v>59328.82923572798</v>
+        <v>59175.57841326267</v>
       </c>
       <c r="G6" t="n">
-        <v>59328.82923572798</v>
+        <v>59175.57841326267</v>
       </c>
       <c r="H6" t="n">
-        <v>59328.82923572798</v>
+        <v>59175.57841326267</v>
       </c>
       <c r="I6" t="n">
-        <v>59328.82923572798</v>
+        <v>59175.57841326267</v>
       </c>
       <c r="J6" t="n">
-        <v>59328.82923572798</v>
+        <v>59175.57841326267</v>
       </c>
       <c r="K6" t="n">
-        <v>59328.82923572798</v>
+        <v>59175.57841326267</v>
       </c>
       <c r="L6" t="n">
-        <v>59328.82923572798</v>
+        <v>59175.57841326267</v>
       </c>
       <c r="M6" t="n">
-        <v>59328.82923572798</v>
+        <v>59175.57841326267</v>
       </c>
       <c r="N6" t="n">
-        <v>59328.82923572798</v>
+        <v>59175.57841326267</v>
       </c>
       <c r="O6" t="n">
-        <v>59328.82923572798</v>
+        <v>59175.57841326267</v>
       </c>
       <c r="P6" t="n">
-        <v>59328.82923572798</v>
+        <v>59175.57841326267</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>244168.7008742108</v>
+        <v>257895.0590116289</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>86005.92442515712</v>
+      </c>
+      <c r="C2" t="n">
         <v>86005.92442515714</v>
       </c>
-      <c r="C2" t="n">
-        <v>86005.92442515712</v>
-      </c>
       <c r="D2" t="n">
-        <v>86005.92442515712</v>
+        <v>86005.92442515711</v>
       </c>
       <c r="E2" t="n">
         <v>91456.43851989089</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26418,43 +26420,43 @@
         <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="D4" t="n">
         <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="F4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="G4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="H4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="I4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="J4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="K4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="L4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="M4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="N4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="O4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="P4" t="n">
         <v>28669.24800161989</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3999.99193600627</v>
+        <v>3999.991936006249</v>
       </c>
       <c r="C6" t="n">
         <v>3999.991936006256</v>
       </c>
       <c r="D6" t="n">
-        <v>3999.991936006256</v>
+        <v>3999.991936006234</v>
       </c>
       <c r="E6" t="n">
-        <v>-73924.42158673731</v>
+        <v>-73924.42158673737</v>
       </c>
       <c r="F6" t="n">
-        <v>59175.57841326267</v>
+        <v>59175.57841326268</v>
       </c>
       <c r="G6" t="n">
-        <v>59175.57841326267</v>
+        <v>59175.57841326268</v>
       </c>
       <c r="H6" t="n">
-        <v>59175.57841326267</v>
+        <v>59175.57841326268</v>
       </c>
       <c r="I6" t="n">
-        <v>59175.57841326267</v>
+        <v>59175.57841326268</v>
       </c>
       <c r="J6" t="n">
-        <v>59175.57841326267</v>
+        <v>59175.57841326268</v>
       </c>
       <c r="K6" t="n">
-        <v>59175.57841326267</v>
+        <v>59175.57841326268</v>
       </c>
       <c r="L6" t="n">
-        <v>59175.57841326267</v>
+        <v>59175.57841326268</v>
       </c>
       <c r="M6" t="n">
-        <v>59175.57841326267</v>
+        <v>59175.57841326268</v>
       </c>
       <c r="N6" t="n">
-        <v>59175.57841326267</v>
+        <v>59175.57841326268</v>
       </c>
       <c r="O6" t="n">
-        <v>59175.57841326267</v>
+        <v>59175.57841326268</v>
       </c>
       <c r="P6" t="n">
-        <v>59175.57841326267</v>
+        <v>59175.57841326268</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>257895.0590116289</v>
+        <v>132785.1602141522</v>
       </c>
     </row>
     <row r="7">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>86005.92442515714</v>
+      </c>
+      <c r="C2" t="n">
         <v>86005.92442515712</v>
-      </c>
-      <c r="C2" t="n">
-        <v>86005.92442515714</v>
       </c>
       <c r="D2" t="n">
         <v>86005.92442515711</v>
@@ -26429,37 +26429,37 @@
         <v>28669.24800161988</v>
       </c>
       <c r="F4" t="n">
+        <v>28669.24800161988</v>
+      </c>
+      <c r="G4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>28669.24800161988</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>28669.24800161988</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>28669.24800161988</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>28669.24800161988</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>28669.24800161988</v>
-      </c>
-      <c r="P4" t="n">
-        <v>28669.24800161989</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3999.991936006249</v>
+        <v>-11150.6820340285</v>
       </c>
       <c r="C6" t="n">
-        <v>3999.991936006256</v>
+        <v>-11150.68203402852</v>
       </c>
       <c r="D6" t="n">
-        <v>3999.991936006234</v>
+        <v>-11150.68203402853</v>
       </c>
       <c r="E6" t="n">
-        <v>-73924.42158673737</v>
+        <v>-88734.43842585127</v>
       </c>
       <c r="F6" t="n">
-        <v>59175.57841326268</v>
+        <v>44365.56157414877</v>
       </c>
       <c r="G6" t="n">
-        <v>59175.57841326268</v>
+        <v>44365.56157414877</v>
       </c>
       <c r="H6" t="n">
-        <v>59175.57841326268</v>
+        <v>44365.56157414877</v>
       </c>
       <c r="I6" t="n">
-        <v>59175.57841326268</v>
+        <v>44365.56157414877</v>
       </c>
       <c r="J6" t="n">
-        <v>59175.57841326268</v>
+        <v>44365.56157414877</v>
       </c>
       <c r="K6" t="n">
-        <v>59175.57841326268</v>
+        <v>44365.56157414877</v>
       </c>
       <c r="L6" t="n">
-        <v>59175.57841326268</v>
+        <v>44365.56157414877</v>
       </c>
       <c r="M6" t="n">
-        <v>59175.57841326268</v>
+        <v>44365.56157414877</v>
       </c>
       <c r="N6" t="n">
-        <v>59175.57841326268</v>
+        <v>44365.56157414877</v>
       </c>
       <c r="O6" t="n">
-        <v>59175.57841326268</v>
+        <v>44365.56157414877</v>
       </c>
       <c r="P6" t="n">
-        <v>59175.57841326268</v>
+        <v>44365.56157414877</v>
       </c>
     </row>
   </sheetData>
